--- a/data/Insuit/litter_CNP.xlsx
+++ b/data/Insuit/litter_CNP.xlsx
@@ -33,7 +33,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Decomposition_time</t>
+    <t>Time</t>
   </si>
   <si>
     <t>Sampling_time</t>
@@ -82,8 +82,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
@@ -103,6 +103,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -112,17 +120,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,53 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +149,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,17 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +191,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,25 +274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,67 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,19 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,27 +458,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,36 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,11 +499,57 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,7 +573,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,124 +582,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>328.342</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" hidden="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>434.782104492188</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>367.468605041504</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" hidden="1" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>292.563</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" hidden="1" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>318.97289276123</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>313.722667694092</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>365.922</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" hidden="1" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>381.92943572998</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>379.582748413086</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>382.189</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>467.316093444824</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" hidden="1" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>433.825378417969</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>361.22</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>407.634620666504</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" hidden="1" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="F16" s="5">
         <v>44642</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>12.634</v>
       </c>
       <c r="H16" s="6">
@@ -1628,7 +1628,7 @@
       <c r="F21" s="5">
         <v>44642</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>9.51470911502838</v>
       </c>
       <c r="H21" s="6">
@@ -1782,7 +1782,7 @@
       <c r="F27" s="5">
         <v>44642</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>10.2035593986511</v>
       </c>
       <c r="H27" s="7">
@@ -1889,7 +1889,7 @@
         <v>433.840293884277</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" hidden="1" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>391.105</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" hidden="1" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -1937,11 +1937,11 @@
       <c r="G33" s="6">
         <v>5.87334156036377</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="7">
         <v>584.311752319336</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" hidden="1" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -1961,11 +1961,11 @@
         <v>44642</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6">
+      <c r="H34" s="7">
         <v>551.418876647949</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" hidden="1" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>319.922</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" hidden="1" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>275.179271697998</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" hidden="1" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>458.100509643555</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" hidden="1" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>365.026</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" hidden="1" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>307.087440490723</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" hidden="1" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>442.324142456055</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" hidden="1" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>291.007</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" hidden="1" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>318.081703186035</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" hidden="1" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>432.509880065918</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" hidden="1" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>360.331</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" hidden="1" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>434.907684326172</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" hidden="1" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>672.495956420898</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" hidden="1" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>368.583</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" hidden="1" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -2312,14 +2312,14 @@
       <c r="F48" s="5">
         <v>44642</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>10.1284980773926</v>
       </c>
       <c r="H48" s="7">
         <v>1094.35073852539</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" hidden="1" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>513.129959106445</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>316.878</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" hidden="1" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>361.343002319336</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" hidden="1" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -2413,11 +2413,11 @@
         <v>44642</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="6">
+      <c r="H52" s="7">
         <v>650.021362304688</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" hidden="1" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>382.23</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" hidden="1" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -2463,11 +2463,11 @@
         <v>44642</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="6">
+      <c r="H54" s="7">
         <v>280.511016845703</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" hidden="1" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>525.477027893066</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" hidden="1" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>354.313</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" hidden="1" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>527.256965637207</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" hidden="1" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>461.241111755371</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" hidden="1" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -2589,11 +2589,11 @@
       <c r="G59" s="6">
         <v>5.67</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="7">
         <v>269.37</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" hidden="1" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>381.38973236084</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" hidden="1" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>498.799629211426</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" hidden="1" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>341.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" hidden="1" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>625.248336791992</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" hidden="1" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>400.44548034668</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" hidden="1" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>14</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>348.784</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" hidden="1" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>367.80216217041</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" hidden="1" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>418.618240356445</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" hidden="1" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>303.245</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" hidden="1" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
@@ -2838,14 +2838,14 @@
       <c r="F69" s="5">
         <v>44642</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="7">
         <v>2.17739686369896</v>
       </c>
       <c r="H69" s="7">
         <v>224.192180633545</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" hidden="1" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>337.489051818848</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" hidden="1" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>315.415</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" hidden="1" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>374.59156036377</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" hidden="1" spans="1:8">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>444.175910949707</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" hidden="1" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>350.096</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" hidden="1" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>945.698165893555</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" hidden="1" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>485.45093536377</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" hidden="1" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>348.681</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" hidden="1" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>15</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>513.358917236328</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" hidden="1" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>15</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>458.343849182129</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" hidden="1" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>15</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>259.373</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" hidden="1" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>320.335540771484</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" hidden="1" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>334.98779296875</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" hidden="1" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>363.031</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" hidden="1" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>365.714263916016</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" hidden="1" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>15</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>385.903663635254</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" hidden="1" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>385.578</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" hidden="1" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>15</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>340.654640197754</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" hidden="1" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>15</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>464.524459838867</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" hidden="1" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>15</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>292.437</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" hidden="1" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>400.020523071289</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" hidden="1" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>366.133079528809</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" hidden="1" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>309.864</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" hidden="1" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>398.708267211914</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" hidden="1" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>592.367820739746</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" hidden="1" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
@@ -3491,11 +3491,11 @@
         <v>44642</v>
       </c>
       <c r="G95" s="6"/>
-      <c r="H95" s="6">
+      <c r="H95" s="7">
         <v>240.723</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" hidden="1" spans="1:8">
       <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>803.889694213867</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" hidden="1" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>375.635719299316</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" hidden="1" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>16</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>812.264</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" hidden="1" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>16</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>636.969795227051</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" hidden="1" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>406.463098526001</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" hidden="1" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>379.261</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" hidden="1" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>841.440124511719</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" hidden="1" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>284.875221252441</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" hidden="1" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" hidden="1" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>16</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>469.646377563477</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" hidden="1" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>16</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>380.82820892334</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" hidden="1" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>9</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>181.331</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" hidden="1" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>9</v>
       </c>
@@ -3814,14 +3814,14 @@
       <c r="F108" s="5">
         <v>44642</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="7">
         <v>4.24071133136749</v>
       </c>
       <c r="H108" s="6">
         <v>499.229469299316</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" hidden="1" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>9</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>367.800788879395</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" hidden="1" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>9</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" hidden="1" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>9</v>
       </c>
@@ -3888,14 +3888,14 @@
       <c r="F111" s="5">
         <v>44642</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="7">
         <v>3.29989045858383</v>
       </c>
       <c r="H111" s="7">
         <v>290.653305053711</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" hidden="1" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>415.150146484375</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" hidden="1" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>9</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" hidden="1" spans="1:8">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>467.474670410156</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" hidden="1" spans="1:8">
       <c r="A115" s="4" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>421.161041259766</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" hidden="1" spans="1:8">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>425.161</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" hidden="1" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>504.559326171875</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" hidden="1" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>9</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>412.653884887695</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" hidden="1" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>364.980697631836</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" hidden="1" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>473.948440551758</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" hidden="1" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>355.368804931641</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" hidden="1" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>433.486404418945</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" hidden="1" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>464.993133544922</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" hidden="1" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>378.778800964355</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" hidden="1" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>383.461151123047</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" hidden="1" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>418.705558776855</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" hidden="1" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>286.168308258057</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" hidden="1" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>428.678436279297</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" hidden="1" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>489.204978942871</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" hidden="1" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>412.358818054199</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" hidden="1" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>439.323997497559</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" hidden="1" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>12</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>513.879661560059</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" hidden="1" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>388.732757568359</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" hidden="1" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>421.496315002441</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" hidden="1" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>12</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>485.137634277344</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" hidden="1" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>12</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>293.115978240967</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" hidden="1" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>429.052581787109</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" hidden="1" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>347.546920776367</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" hidden="1" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>12</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>324.841766357422</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" hidden="1" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>12</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>413.485298156738</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" hidden="1" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>12</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>487.462768554688</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" hidden="1" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>12</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>427.052574157715</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" hidden="1" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>13</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>448.95133972168</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" hidden="1" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>367.348747253418</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" hidden="1" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>429.4873046875</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" hidden="1" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>413.435935974121</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" hidden="1" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>13</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>457.547378540039</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" hidden="1" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>13</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>378.971252441406</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" hidden="1" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>13</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>386.96346282959</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" hidden="1" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>13</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>524.744148254395</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" hidden="1" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>13</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>411.078147888184</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" hidden="1" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>13</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>413.397789001465</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" hidden="1" spans="1:8">
       <c r="A153" s="4" t="s">
         <v>13</v>
       </c>
@@ -4954,14 +4954,14 @@
       <c r="F153" s="5">
         <v>44642</v>
       </c>
-      <c r="G153" s="6">
+      <c r="G153" s="7">
         <v>10.5524742603302</v>
       </c>
       <c r="H153" s="6">
         <v>476.560554504395</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" hidden="1" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>13</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>393.968124389648</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" hidden="1" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>349.473838806152</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" hidden="1" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>14</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>449.793663024902</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" hidden="1" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>14</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>340.431938171387</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" hidden="1" spans="1:8">
       <c r="A158" s="4" t="s">
         <v>14</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>382.438659667969</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" hidden="1" spans="1:8">
       <c r="A159" s="4" t="s">
         <v>14</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>402.780876159668</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" hidden="1" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>14</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>349.486083984375</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" hidden="1" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>417.318801879883</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" hidden="1" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>14</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>521.271438598633</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" hidden="1" spans="1:8">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>404.600296020508</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" hidden="1" spans="1:8">
       <c r="A164" s="4" t="s">
         <v>14</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>412.285079956055</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" hidden="1" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>14</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>389.480857849121</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" hidden="1" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>14</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>375.602951049805</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" hidden="1" spans="1:8">
       <c r="A167" s="4" t="s">
         <v>15</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>461.21997833252</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" hidden="1" spans="1:8">
       <c r="A168" s="4" t="s">
         <v>15</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>555.701713562012</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" hidden="1" spans="1:8">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>432.885971069336</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" hidden="1" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>15</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>421.330261230469</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" hidden="1" spans="1:8">
       <c r="A171" s="4" t="s">
         <v>15</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>508.517799377441</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" hidden="1" spans="1:8">
       <c r="A172" s="4" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>374.051170349121</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" hidden="1" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>15</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>357.89249420166</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" hidden="1" spans="1:8">
       <c r="A174" s="4" t="s">
         <v>15</v>
       </c>
@@ -5493,11 +5493,11 @@
       <c r="G174" s="6">
         <v>7.06964313983917</v>
       </c>
-      <c r="H174" s="6">
+      <c r="H174" s="7">
         <v>248.225231170654</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" hidden="1" spans="1:8">
       <c r="A175" s="4" t="s">
         <v>15</v>
       </c>
@@ -5519,11 +5519,11 @@
       <c r="G175" s="6">
         <v>8.52424323558807</v>
       </c>
-      <c r="H175" s="6">
+      <c r="H175" s="7">
         <v>254.425315856934</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" hidden="1" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>448.343811035156</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" hidden="1" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>15</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>431.239395141602</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" hidden="1" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>15</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>406.883316040039</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" hidden="1" spans="1:8">
       <c r="A179" s="4" t="s">
         <v>16</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>365.250091552734</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" hidden="1" spans="1:8">
       <c r="A180" s="4" t="s">
         <v>16</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>570.339241027832</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" hidden="1" spans="1:8">
       <c r="A181" s="4" t="s">
         <v>16</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>434.735565185547</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" hidden="1" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>16</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>507.267112731934</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" hidden="1" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>16</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>583.092002868652</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" hidden="1" spans="1:8">
       <c r="A184" s="4" t="s">
         <v>16</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>408.698921203613</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" hidden="1" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>16</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>457.765045166016</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" hidden="1" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>16</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>577.926330566406</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" hidden="1" spans="1:8">
       <c r="A187" s="4" t="s">
         <v>16</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>436.417121887207</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" hidden="1" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>16</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>457.916564941406</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" hidden="1" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>16</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>574.413833618164</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" hidden="1" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>16</v>
       </c>
@@ -5909,6 +5909,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H190">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="N1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="stem"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
